--- a/medicine/Autisme/Freddie_Odom/Freddie_Odom.xlsx
+++ b/medicine/Autisme/Freddie_Odom/Freddie_Odom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Douglas Fred « Freddie » Odom, Jr est un acteur, auteur, enseignant, et un homme politique américain indépendant. En mars 2012, Odom a fait son coming out en tant que personne avec autisme. Il a ensuite été élu maire de Bluffton (Géorgie).
-Après avoir réussi à auditionner pour un rôle aux côtés de Victoria Henley dans la pièce Sister Queens[1], Odom est devenu un acteur régulier dans "Georgia's Official Folk-Life Playé", Swamp Gravy[2]. Il a été élu au Conseil de la Ville de Bluffton en novembre 2010[3]. Après être apparu dans un article sur Swamp Gravy dans le numéro de janvier/février 2012 du Southwest Georgia Living, Odom s'est auto-identifié comme étant une personne autiste dans le numéro suivant[4].
+Après avoir réussi à auditionner pour un rôle aux côtés de Victoria Henley dans la pièce Sister Queens, Odom est devenu un acteur régulier dans "Georgia's Official Folk-Life Playé", Swamp Gravy. Il a été élu au Conseil de la Ville de Bluffton en novembre 2010. Après être apparu dans un article sur Swamp Gravy dans le numéro de janvier/février 2012 du Southwest Georgia Living, Odom s'est auto-identifié comme étant une personne autiste dans le numéro suivant.
 En 2014, Odom a publié un livre sur ses expériences, intitulé They Can Kill Me, But They Can't Eat Me.
 </t>
         </is>
